--- a/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68308BA0-A6B2-4A85-952C-316E036870BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06185105-2F88-4A6A-AAC5-5A0D512496ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -215,16 +215,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日本証券テクノロジー株式会社</t>
-    <rPh sb="0" eb="4">
-      <t>ニホンショウケン</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・画面の表示項目、入力内容におけるシステムの挙動・画面遷移について確認する。
 ・数値の範囲を確認する場合には同値分割や境界値分析の手法を用いる</t>
     <phoneticPr fontId="2"/>
@@ -340,16 +330,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログイン」画面が表示される。</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -562,32 +542,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registerproductcategory/complete」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/ec-b/registerproductcategory/complete」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「業務終了」ボタンを押下</t>
     <rPh sb="1" eb="3">
       <t>ギョウム</t>
@@ -667,6 +621,49 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registerproductcategory/complete」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registerproductcategory/complete」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -974,7 +971,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1036,41 +1033,77 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1087,86 +1120,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1520,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1538,25 +1538,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1567,27 +1567,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1600,50 +1600,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="37"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1652,20 +1652,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1675,105 +1675,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="51"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1785,18 +1785,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1808,18 +1808,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1831,18 +1831,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1854,66 +1854,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
+      <c r="C14" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="45"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="43"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1925,18 +1925,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1948,18 +1948,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1971,174 +1971,172 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="20"/>
     </row>
-    <row r="19" spans="1:17" ht="50" customHeight="1">
+    <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="6">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="18"/>
-    </row>
-    <row r="20" spans="1:17" ht="44" customHeight="1">
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+    </row>
+    <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="18"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
-        <v>16</v>
-      </c>
-      <c r="B21" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
-        <v>17</v>
-      </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
-        <v>18</v>
-      </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
-        <v>19</v>
-      </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2147,120 +2145,88 @@
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
-        <v>20</v>
-      </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-    </row>
-    <row r="26" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+    </row>
+    <row r="26" spans="1:17" ht="50" customHeight="1">
       <c r="A26" s="6">
-        <v>21</v>
-      </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P26" s="16"/>
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="1:17" ht="44" customHeight="1">
       <c r="A27" s="6">
-        <v>22</v>
-      </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="40"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
+  <mergeCells count="59">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2275,11 +2241,46 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06185105-2F88-4A6A-AAC5-5A0D512496ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADBB1CF-694B-458B-A617-EFD325D9B127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -638,32 +638,32 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registerproductcategory/complete」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registerproductcategory/complete」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/registerproductcategory/complete」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/registerproductcategory/complete」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1042,7 +1042,55 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1054,10 +1102,55 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1072,101 +1165,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="C27" sqref="C27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1538,25 +1538,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1567,27 +1567,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="60" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1600,50 +1600,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1652,20 +1652,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1675,105 +1675,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="51"/>
+      <c r="Q5" s="45"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1785,18 +1785,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1808,18 +1808,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1831,18 +1831,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="25" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1854,66 +1854,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="41"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="25" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="41"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="25" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="43"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1925,18 +1925,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="25" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1948,18 +1948,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="25" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1971,20 +1971,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="25" t="s">
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1998,95 +1998,95 @@
       <c r="B19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="24" t="s">
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="24" t="s">
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="24" t="s">
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2098,38 +2098,38 @@
         <v>20</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="24" t="s">
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="16" t="s">
         <v>54</v>
       </c>
@@ -2148,47 +2148,47 @@
         <v>22</v>
       </c>
       <c r="B25" s="23"/>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="30" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="32"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="63"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="1:17" ht="50" customHeight="1">
       <c r="A26" s="6">
         <v>14</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="30" t="s">
+      <c r="C26" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="32"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="63"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2199,21 +2199,21 @@
       <c r="A27" s="6">
         <v>15</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="30" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="32"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="63"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2222,11 +2222,45 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2242,45 +2276,11 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADBB1CF-694B-458B-A617-EFD325D9B127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D9822A-6546-4E30-8516-35FEEAB86E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>作成者</t>
   </si>
@@ -664,6 +664,27 @@
     </rPh>
     <rPh sb="84" eb="86">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF対策：
+画面をリロードする</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままの画面が表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1042,6 +1063,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,27 +1141,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1153,20 +1186,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1518,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:G27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1538,25 +1559,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,23 +1592,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1600,50 +1621,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="40"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1652,20 +1673,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1675,105 +1696,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="51"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="41" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="51"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="41" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1785,18 +1806,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="41" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1808,18 +1829,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="41" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1831,18 +1852,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="41" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1854,66 +1875,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="41" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="51"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="41" t="s">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="51"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="41" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="43"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1925,18 +1946,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="41" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1948,18 +1969,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="41" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1971,20 +1992,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="41" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1993,100 +2014,100 @@
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="48" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="48" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="48" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="48" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2095,41 +2116,41 @@
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="48" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="16" t="s">
         <v>54</v>
       </c>
@@ -2145,50 +2166,50 @@
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="23"/>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="61" t="s">
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="63"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
     </row>
     <row r="26" spans="1:17" ht="50" customHeight="1">
       <c r="A26" s="6">
-        <v>14</v>
-      </c>
-      <c r="B26" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="61" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="63"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2197,36 +2218,60 @@
     </row>
     <row r="27" spans="1:17" ht="44" customHeight="1">
       <c r="A27" s="6">
-        <v>15</v>
-      </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="61" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="63"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="16"/>
       <c r="Q27" s="18"/>
     </row>
+    <row r="28" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="61">
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="B26:B27"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
@@ -2253,6 +2298,8 @@
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="H16:L16"/>
     <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="P8:Q8"/>
@@ -2261,6 +2308,19 @@
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2269,18 +2329,6 @@
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D9822A-6546-4E30-8516-35FEEAB86E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FA432E-6209-44CB-AA18-C62EC0BA7588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>作成者</t>
   </si>
@@ -685,6 +685,17 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1063,6 +1074,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1081,6 +1095,51 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1140,54 +1199,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1541,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1559,25 +1570,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1592,23 +1603,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1618,53 +1629,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="65"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="65"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1673,20 +1686,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1696,108 +1709,132 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="51"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="20"/>
     </row>
@@ -1806,21 +1843,27 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="20"/>
     </row>
@@ -1829,21 +1872,27 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="20"/>
     </row>
@@ -1852,21 +1901,27 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="20"/>
     </row>
@@ -1875,69 +1930,87 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="39"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="20"/>
     </row>
@@ -1946,21 +2019,27 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="20"/>
     </row>
@@ -1969,21 +2048,27 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="20"/>
     </row>
@@ -1992,23 +2077,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="24" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="15">
+        <v>45503</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="20"/>
     </row>
@@ -2019,95 +2110,95 @@
       <c r="B19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="52" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="52" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="52" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="52" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2119,38 +2210,38 @@
         <v>18</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="52" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="16" t="s">
         <v>54</v>
       </c>
@@ -2169,47 +2260,47 @@
         <v>20</v>
       </c>
       <c r="B25" s="23"/>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="27" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="1:17" ht="50" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2220,21 +2311,21 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="65" t="s">
+      <c r="B27" s="47"/>
+      <c r="C27" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="27" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2245,21 +2336,21 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="24" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2268,51 +2359,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="B26:B28"/>
@@ -2329,6 +2375,51 @@
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FA432E-6209-44CB-AA18-C62EC0BA7588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E157E8-DB5C-4334-985A-6E5FA02CB5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8570" yWindow="270" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>作成者</t>
   </si>
@@ -324,16 +324,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品情報メンテナンス」リンクを押下</t>
     <rPh sb="1" eb="5">
       <t>ショウヒンジョウホウ</t>
@@ -450,16 +440,6 @@
     <t>「ログアウト」を押下</t>
     <rPh sb="8" eb="10">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -696,6 +676,26 @@
     <t>高良</t>
     <rPh sb="0" eb="2">
       <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前のメニュー画面に遷移すること</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1074,131 +1074,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N18" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1570,25 +1570,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1599,27 +1599,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="55" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1630,54 +1630,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="65"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="65"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1686,20 +1686,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="40" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1709,131 +1709,131 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="51"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="15">
         <v>45503</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="15">
         <v>45503</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="15">
         <v>45503</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
+        <v>61</v>
+      </c>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="15">
         <v>45503</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="20"/>
@@ -1843,26 +1843,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="15">
         <v>45503</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="20"/>
@@ -1872,26 +1872,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="15">
         <v>45503</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="20"/>
@@ -1901,26 +1901,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="25" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="15">
         <v>45503</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="20"/>
@@ -1930,86 +1930,86 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
       <c r="M13" s="15">
         <v>45503</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39"/>
+        <v>61</v>
+      </c>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="15">
         <v>45503</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39"/>
+        <v>61</v>
+      </c>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
       <c r="M15" s="15">
         <v>45503</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="20"/>
@@ -2019,26 +2019,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="15">
         <v>45503</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="20"/>
@@ -2048,26 +2048,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
       <c r="M17" s="15">
         <v>45503</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="20"/>
@@ -2077,28 +2077,28 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="25" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
       <c r="M18" s="15">
         <v>45503</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="20"/>
@@ -2110,140 +2110,150 @@
       <c r="B19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
+      <c r="O19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
+      <c r="O20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
+      <c r="O21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+      <c r="O22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
+      <c r="C23" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
+      <c r="O23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
@@ -2251,59 +2261,65 @@
       <c r="L24" s="18"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="23"/>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
+      <c r="O25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
     </row>
     <row r="26" spans="1:17" ht="50" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
+      <c r="C26" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="O26" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="P26" s="16"/>
       <c r="Q26" s="18"/>
     </row>
@@ -2311,24 +2327,26 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="18"/>
     </row>
@@ -2336,29 +2354,78 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+      <c r="O28" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="P28" s="16"/>
       <c r="Q28" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="63">
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="B26:B28"/>
@@ -2375,51 +2442,6 @@
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E157E8-DB5C-4334-985A-6E5FA02CB5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5871B3AC-0ACD-4560-8555-6F7440E4BC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8570" yWindow="270" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>作成者</t>
   </si>
@@ -696,6 +696,16 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面が表示されること</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1074,6 +1084,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1084,6 +1097,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1092,6 +1111,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1151,54 +1209,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1552,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N18" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24:Q24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1570,25 +1580,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1603,23 +1613,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1634,50 +1644,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="65"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="65"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1686,20 +1696,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1709,32 +1719,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="51"/>
+      <c r="Q5" s="42"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="15">
         <v>45503</v>
       </c>
@@ -1744,28 +1754,28 @@
       <c r="O6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="15">
         <v>45503</v>
       </c>
@@ -1775,28 +1785,28 @@
       <c r="O7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="15">
         <v>45503</v>
       </c>
@@ -1806,26 +1816,26 @@
       <c r="O8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="15">
         <v>45503</v>
       </c>
@@ -1843,18 +1853,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="15">
         <v>45503</v>
       </c>
@@ -1872,18 +1882,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="15">
         <v>45503</v>
       </c>
@@ -1901,18 +1911,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="15">
         <v>45503</v>
       </c>
@@ -1930,18 +1940,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="15">
         <v>45503</v>
       </c>
@@ -1951,28 +1961,28 @@
       <c r="O13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
       <c r="M14" s="15">
         <v>45503</v>
       </c>
@@ -1982,26 +1992,26 @@
       <c r="O14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="15">
         <v>45503</v>
       </c>
@@ -2019,18 +2029,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="15">
         <v>45503</v>
       </c>
@@ -2048,18 +2058,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="15">
         <v>45503</v>
       </c>
@@ -2077,20 +2087,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="24" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="15">
         <v>45503</v>
       </c>
@@ -2110,148 +2120,148 @@
       <c r="B19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="52" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="52" t="s">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="52" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="52" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="52" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="16" t="s">
         <v>52</v>
       </c>
@@ -2264,57 +2274,57 @@
       <c r="O24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="29"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="23"/>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="27" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="1:17" ht="50" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
@@ -2327,21 +2337,21 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="65" t="s">
+      <c r="B27" s="47"/>
+      <c r="C27" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="27" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="29"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
@@ -2354,21 +2364,21 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="24" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="29"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="32"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
@@ -2379,53 +2389,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="B26:B28"/>
@@ -2442,6 +2405,53 @@
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P24:Q24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5871B3AC-0ACD-4560-8555-6F7440E4BC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A3D094-E424-4240-AB45-48A0AC1BCDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>作成者</t>
   </si>
@@ -706,6 +706,13 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タチカワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1013,7 +1020,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1033,41 +1040,140 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1075,140 +1181,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1560,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:L28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1580,25 +1584,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,782 +1617,874 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="55" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="9" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="64" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="65"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="65"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="40" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="15">
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="64">
         <v>45503</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="15">
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="64">
         <v>45503</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="15">
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="64">
         <v>45503</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="29"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="53"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="25" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="15">
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="64">
         <v>45503</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="25" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="15">
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="64">
         <v>45503</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="20"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="11.25" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="25" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="15">
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="64">
         <v>45503</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="20"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="1:17" ht="11.25" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="25" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="15">
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="64">
         <v>45503</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="25" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="15">
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="64">
         <v>45503</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="53"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="25" t="s">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="15">
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="64">
         <v>45503</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="29"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="53"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="25" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="15">
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="64">
         <v>45503</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="20"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="25" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="15">
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="64">
         <v>45503</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="20"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:17" ht="11.25" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="25" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="15">
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="64">
         <v>45503</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="20"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="25" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="15">
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="64">
         <v>45503</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" ht="11.25" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7" t="s">
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="64">
+        <v>45504</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="24" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7" t="s">
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="64">
+        <v>45504</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="24" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7" t="s">
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="64">
+        <v>45504</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="24" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7" t="s">
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="64">
+        <v>45504</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="29"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="53"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="24" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7" t="s">
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="64">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="16" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7" t="s">
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="64">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="29"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="53"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="33" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="30" t="s">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7" t="s">
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="64">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
     </row>
     <row r="26" spans="1:17" ht="50" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="30" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7" t="s">
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="64">
+        <v>45504</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="18"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="1:17" ht="44" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="33" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="30" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7" t="s">
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="64">
+        <v>45504</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="18"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="16"/>
     </row>
     <row r="28" spans="1:17" ht="58.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="25" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="30" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7" t="s">
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="64">
+        <v>45504</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="18"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" ht="11.25" customHeight="1">
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="B26:B28"/>
@@ -2405,53 +2501,6 @@
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P24:Q24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP021商品カテゴリ登録(完了)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A3D094-E424-4240-AB45-48A0AC1BCDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDF2C1C-93A1-4BB4-9040-A7E9045828C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -1085,6 +1085,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1095,6 +1101,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1103,6 +1115,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1162,57 +1213,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1566,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="M19" sqref="M19:N28"/>
     </sheetView>
   </sheetViews>
@@ -1584,25 +1584,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1617,23 +1617,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1648,50 +1648,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="64"/>
     </row>
     <row r="4" spans="1:17" ht="39" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="47"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1700,20 +1700,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1723,33 +1723,33 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="49"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="64">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="22">
         <v>45503</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1758,29 +1758,29 @@
       <c r="O6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="50" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="64">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="22">
         <v>45503</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -1789,29 +1789,29 @@
       <c r="O7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="22" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="64">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="22">
         <v>45503</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -1820,27 +1820,27 @@
       <c r="O8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="53"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="22" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="64">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="22">
         <v>45503</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -1857,19 +1857,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="22" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="64">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="22">
         <v>45503</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1886,19 +1886,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="22" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="64">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="22">
         <v>45503</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -1915,19 +1915,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="22" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="64">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="22">
         <v>45503</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -1944,19 +1944,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="22" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="64">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="22">
         <v>45503</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -1965,29 +1965,29 @@
       <c r="O13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="28"/>
     </row>
     <row r="14" spans="1:17" ht="11.25" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="22" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="64">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="22">
         <v>45503</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -1996,27 +1996,27 @@
       <c r="O14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="53"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
     </row>
     <row r="15" spans="1:17" ht="58.5" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="22" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="64">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="22">
         <v>45503</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -2033,19 +2033,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="22" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="64">
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="22">
         <v>45503</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2062,19 +2062,19 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="22" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="64">
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="22">
         <v>45503</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2091,21 +2091,21 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="22" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="64">
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="22">
         <v>45503</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -2124,21 +2124,21 @@
       <c r="B19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="50" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="64">
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="22">
         <v>45504</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2147,29 +2147,29 @@
       <c r="O19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
     </row>
     <row r="20" spans="1:17" ht="11.25" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="50" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="64">
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="22">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2178,29 +2178,29 @@
       <c r="O20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="1:17" ht="11.25" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="50" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="64">
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="22">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -2209,29 +2209,29 @@
       <c r="O21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="1:17" ht="11.25" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="50" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="64">
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="22">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2240,29 +2240,29 @@
       <c r="O22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="53"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
     </row>
     <row r="23" spans="1:17" ht="11.25" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="50" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="64">
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="22">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2271,21 +2271,21 @@
       <c r="O23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" ht="11.25" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="14" t="s">
         <v>52</v>
       </c>
@@ -2293,7 +2293,7 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="64">
+      <c r="M24" s="22">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2302,29 +2302,29 @@
       <c r="O24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="53"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="25" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="64">
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="22">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2333,31 +2333,31 @@
       <c r="O25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="1:17" ht="50" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="64">
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="22">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2373,22 +2373,22 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="63" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="25" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="64">
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="22">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -2404,22 +2404,22 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="47"/>
+      <c r="C28" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="64">
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="22">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -2438,53 +2438,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="C14:G17"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="B26:B28"/>
@@ -2501,6 +2454,53 @@
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C14:G17"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P24:Q24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
